--- a/reddit-1.xlsx
+++ b/reddit-1.xlsx
@@ -5,16 +5,17 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4ea685d8e90b93c1/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\income tax\payment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{972B9958-91D4-4138-97E6-764B38E513EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52F22FDA-87B7-4386-9049-355CD367ED64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{35FD973F-A431-436D-BFE0-3B8CAA158BDA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{35FD973F-A431-436D-BFE0-3B8CAA158BDA}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
     <sheet name="output" sheetId="2" r:id="rId2"/>
+    <sheet name="how to this file is made" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="ExternalData_1" localSheetId="1" hidden="1">output!$A$1:$R$37</definedName>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="68">
   <si>
     <t>Court</t>
   </si>
@@ -216,13 +217,49 @@
   </si>
   <si>
     <t>1/5/2024</t>
+  </si>
+  <si>
+    <t>Step 1: Select all the data and convert into table (ctrl+t)</t>
+  </si>
+  <si>
+    <t>Step 2: Click anywhere on the table and go to Data &gt; Get &amp; Transform Data &gt; Form Table/Range to load this data into Power Query</t>
+  </si>
+  <si>
+    <t>Step 3: Select the Cost and Incomes fields, Click Transform &gt; Any Column &gt; Unpivot Column</t>
+  </si>
+  <si>
+    <t>Step 4:  Select the Date fields, Click Transform &gt; Any Column &gt; Pivot Column, Choose Value Column from the previous step as your value column, you have the option where to aggregate the data under Advanced options, if you don’t then they remain 1 row per data point</t>
+  </si>
+  <si>
+    <t>Step 5: rename the field so it's easier to understand</t>
+  </si>
+  <si>
+    <t>Step 6: Close &amp; Load</t>
+  </si>
+  <si>
+    <t>How this file is prepared</t>
+  </si>
+  <si>
+    <t>How to update data</t>
+  </si>
+  <si>
+    <t>Step 1: Copy the data in the same format</t>
+  </si>
+  <si>
+    <t>Step 2: paste value only</t>
+  </si>
+  <si>
+    <t>Step 3: Click Table Design &gt; External Data &gt; Refresh</t>
+  </si>
+  <si>
+    <t>Step 4: Finish</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -232,6 +269,23 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -257,9 +311,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -285,6 +340,643 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>587264</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>152726</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09DFAE04-4AE1-D527-13FA-F7ED451959C1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="640080" y="236220"/>
+          <a:ext cx="6043184" cy="3756986"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>5220</xdr:colOff>
+      <xdr:row>83</xdr:row>
+      <xdr:rowOff>104280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>59040</xdr:colOff>
+      <xdr:row>115</xdr:row>
+      <xdr:rowOff>13339</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3F90EDF-73D4-B420-D694-06703FF9D688}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="614820" y="4493400"/>
+          <a:ext cx="5540220" cy="5761219"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18060</xdr:colOff>
+      <xdr:row>116</xdr:row>
+      <xdr:rowOff>18060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475260</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>144235</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF6C0D2D-D046-21C9-F368-D70CFDC9AC1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="627660" y="10442220"/>
+          <a:ext cx="7772400" cy="3600895"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>69000</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>91860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>526200</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>125372</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1270B86E-E5A7-7BFB-3AB5-D0E11A2BDB36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="678600" y="14905140"/>
+          <a:ext cx="7772400" cy="3873992"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>13260</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>13260</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>470460</xdr:colOff>
+      <xdr:row>182</xdr:row>
+      <xdr:rowOff>34640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Picture 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19D2B648-D607-8F7D-2177-6C109358CF36}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="622860" y="18667020"/>
+          <a:ext cx="7772400" cy="3861860"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>18480</xdr:colOff>
+      <xdr:row>185</xdr:row>
+      <xdr:rowOff>41340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>475680</xdr:colOff>
+      <xdr:row>206</xdr:row>
+      <xdr:rowOff>115877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Picture 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98CEB756-2EAA-65E3-94DD-5B62CE737C85}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628080" y="23084220"/>
+          <a:ext cx="7772400" cy="3915017"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>602820</xdr:colOff>
+      <xdr:row>209</xdr:row>
+      <xdr:rowOff>16080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>450420</xdr:colOff>
+      <xdr:row>231</xdr:row>
+      <xdr:rowOff>11475</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Picture 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9F3EFF7A-2004-A646-3A23-2E9512EDCCBC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="602820" y="27448080"/>
+          <a:ext cx="7772400" cy="4018755"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28920</xdr:colOff>
+      <xdr:row>233</xdr:row>
+      <xdr:rowOff>36540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>486120</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>129736</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D48D9EA-C1EE-19C2-282C-21AE87EB0DBD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638520" y="31857660"/>
+          <a:ext cx="7772400" cy="4116556"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>41760</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>178920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>400301</xdr:colOff>
+      <xdr:row>281</xdr:row>
+      <xdr:rowOff>95473</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{012BD181-7186-8507-1EBA-600B55A3BD21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="651360" y="36389160"/>
+          <a:ext cx="4625741" cy="4305673"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16500</xdr:colOff>
+      <xdr:row>284</xdr:row>
+      <xdr:rowOff>77460</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>473700</xdr:colOff>
+      <xdr:row>303</xdr:row>
+      <xdr:rowOff>90137</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE67E439-F2BC-D7BF-7D88-DCF3A50832DF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="626100" y="41225460"/>
+          <a:ext cx="7772400" cy="3487397"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>174807</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>341066</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>94217</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Picture 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F64B21E-03B7-198D-D4ED-6221EF2F110B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="540567"/>
+          <a:ext cx="5195006" cy="2296850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>86853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>415412</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>58211</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Picture 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BF901228-9B12-88FB-F23E-785EB2E3F845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="624840" y="3195813"/>
+          <a:ext cx="5886572" cy="3080318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>22860</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>53694</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>427642</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>469</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{819036B5-6CE6-4A0F-9894-55165E92E85B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="632460" y="6820254"/>
+          <a:ext cx="5281582" cy="2689975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -672,10 +1364,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F33B8693-22BF-40F1-9E6E-F84C6A34F123}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -684,7 +1376,7 @@
     <col min="5" max="5" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -701,7 +1393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>22</v>
       </c>
@@ -718,7 +1410,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>23</v>
       </c>
@@ -735,7 +1427,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>26</v>
       </c>
@@ -752,7 +1444,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>27</v>
       </c>
@@ -766,7 +1458,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>24</v>
       </c>
@@ -780,7 +1472,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -794,7 +1486,7 @@
         <v>50200</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -807,8 +1499,20 @@
       <c r="D8">
         <v>50</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -821,8 +1525,20 @@
       <c r="D9">
         <v>50</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J9" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9">
+        <v>129.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>30</v>
       </c>
@@ -835,8 +1551,20 @@
       <c r="D10">
         <v>129.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N10">
+        <v>611.95000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>31</v>
       </c>
@@ -849,8 +1577,23 @@
       <c r="E11">
         <v>611.95000000000005</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11" t="s">
+        <v>3</v>
+      </c>
+      <c r="L11" t="s">
+        <v>17</v>
+      </c>
+      <c r="M11">
+        <v>159</v>
+      </c>
+      <c r="N11">
+        <v>600.79999999999995</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>32</v>
       </c>
@@ -866,8 +1609,23 @@
       <c r="E12">
         <v>600.79999999999995</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J12" t="s">
+        <v>33</v>
+      </c>
+      <c r="K12" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12">
+        <v>79.5</v>
+      </c>
+      <c r="N12">
+        <v>600.79999999999995</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -883,8 +1641,17 @@
       <c r="E13">
         <v>600.79999999999995</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+      <c r="K13" t="s">
+        <v>3</v>
+      </c>
+      <c r="L13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>34</v>
       </c>
@@ -894,8 +1661,20 @@
       <c r="C14" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+      <c r="K14" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>20</v>
+      </c>
+      <c r="M14">
+        <v>2321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -908,8 +1687,20 @@
       <c r="D15">
         <v>2321</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J15" t="s">
+        <v>36</v>
+      </c>
+      <c r="K15" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" t="s">
+        <v>21</v>
+      </c>
+      <c r="M15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>36</v>
       </c>
@@ -922,8 +1713,23 @@
       <c r="D16">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16" t="s">
+        <v>3</v>
+      </c>
+      <c r="L16" t="s">
+        <v>7</v>
+      </c>
+      <c r="M16">
+        <v>222</v>
+      </c>
+      <c r="N16">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -939,8 +1745,17 @@
       <c r="E17">
         <v>2222</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J17" t="s">
+        <v>38</v>
+      </c>
+      <c r="K17" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>38</v>
       </c>
@@ -950,8 +1765,17 @@
       <c r="C18" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="J18" t="s">
+        <v>39</v>
+      </c>
+      <c r="K18" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>39</v>
       </c>
@@ -975,7 +1799,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{080405C4-E8FF-4C5A-A727-FED360E08C9B}">
   <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:R37"/>
     </sheetView>
   </sheetViews>
@@ -1049,13 +1873,13 @@
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>5</v>
       </c>
       <c r="D2">
@@ -1063,13 +1887,13 @@
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
       <c r="D3">
@@ -1077,13 +1901,13 @@
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1" t="s">
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
         <v>5</v>
       </c>
       <c r="M4">
@@ -1091,13 +1915,13 @@
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1" t="s">
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="M5">
@@ -1105,13 +1929,13 @@
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
       <c r="N6">
@@ -1119,13 +1943,13 @@
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>32</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C7" s="1" t="s">
+      <c r="B7" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
       <c r="N7">
@@ -1133,13 +1957,13 @@
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="1" t="s">
+      <c r="B8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" t="s">
         <v>5</v>
       </c>
       <c r="O8">
@@ -1147,13 +1971,13 @@
       </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="1" t="s">
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
         <v>6</v>
       </c>
       <c r="O9">
@@ -1161,13 +1985,13 @@
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="B10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" t="s">
         <v>5</v>
       </c>
       <c r="P10">
@@ -1175,13 +1999,13 @@
       </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="1" t="s">
+      <c r="B11" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" t="s">
         <v>6</v>
       </c>
       <c r="P11">
@@ -1189,13 +2013,13 @@
       </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
         <v>5</v>
       </c>
       <c r="Q12">
@@ -1203,13 +2027,13 @@
       </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="1" t="s">
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
         <v>6</v>
       </c>
       <c r="Q13">
@@ -1217,13 +2041,13 @@
       </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="1" t="s">
+      <c r="B14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" t="s">
         <v>5</v>
       </c>
       <c r="R14">
@@ -1231,13 +2055,13 @@
       </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C15" s="1" t="s">
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
         <v>6</v>
       </c>
       <c r="R15">
@@ -1245,13 +2069,13 @@
       </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="B16" t="s">
+        <v>3</v>
+      </c>
+      <c r="C16" t="s">
         <v>5</v>
       </c>
       <c r="D16">
@@ -1259,13 +2083,13 @@
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C17" s="1" t="s">
+      <c r="B17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" t="s">
         <v>6</v>
       </c>
       <c r="D17">
@@ -1273,13 +2097,13 @@
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="1" t="s">
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
         <v>5</v>
       </c>
       <c r="E18">
@@ -1287,13 +2111,13 @@
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
+      <c r="A19" t="s">
         <v>38</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="1" t="s">
+      <c r="B19" t="s">
+        <v>3</v>
+      </c>
+      <c r="C19" t="s">
         <v>6</v>
       </c>
       <c r="E19">
@@ -1301,13 +2125,13 @@
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
+      <c r="A20" t="s">
         <v>39</v>
       </c>
-      <c r="B20" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C20" s="1" t="s">
+      <c r="B20" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" t="s">
         <v>5</v>
       </c>
       <c r="F20">
@@ -1315,13 +2139,13 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="1" t="s">
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
         <v>6</v>
       </c>
       <c r="F21">
@@ -1329,13 +2153,13 @@
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
+      <c r="A22" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" t="s">
         <v>2</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" t="s">
         <v>5</v>
       </c>
       <c r="E22">
@@ -1343,13 +2167,13 @@
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
+      <c r="A23" t="s">
         <v>23</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
       <c r="E23">
@@ -1357,13 +2181,13 @@
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
+      <c r="A24" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" t="s">
         <v>5</v>
       </c>
       <c r="F24">
@@ -1371,13 +2195,13 @@
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" t="s">
         <v>6</v>
       </c>
       <c r="F25">
@@ -1385,13 +2209,13 @@
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="A26" t="s">
         <v>27</v>
       </c>
-      <c r="B26" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1" t="s">
+      <c r="B26" t="s">
+        <v>3</v>
+      </c>
+      <c r="C26" t="s">
         <v>5</v>
       </c>
       <c r="G26">
@@ -1399,13 +2223,13 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="A27" t="s">
         <v>27</v>
       </c>
-      <c r="B27" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="1" t="s">
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
         <v>6</v>
       </c>
       <c r="G27">
@@ -1413,13 +2237,13 @@
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="A28" t="s">
         <v>24</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C28" s="1" t="s">
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+      <c r="C28" t="s">
         <v>5</v>
       </c>
       <c r="H28">
@@ -1427,13 +2251,13 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
+      <c r="A29" t="s">
         <v>24</v>
       </c>
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="1" t="s">
+      <c r="B29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C29" t="s">
         <v>6</v>
       </c>
       <c r="H29">
@@ -1441,13 +2265,13 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="A30" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C30" s="1" t="s">
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
         <v>5</v>
       </c>
       <c r="I30">
@@ -1455,13 +2279,13 @@
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="A31" t="s">
         <v>28</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C31" s="1" t="s">
+      <c r="B31" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" t="s">
         <v>6</v>
       </c>
       <c r="I31">
@@ -1469,13 +2293,13 @@
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="A32" t="s">
         <v>25</v>
       </c>
-      <c r="B32" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1" t="s">
+      <c r="B32" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" t="s">
         <v>5</v>
       </c>
       <c r="J32">
@@ -1483,13 +2307,13 @@
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="A33" t="s">
         <v>25</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C33" s="1" t="s">
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
         <v>6</v>
       </c>
       <c r="J33">
@@ -1497,13 +2321,13 @@
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="A34" t="s">
         <v>29</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C34" s="1" t="s">
+      <c r="B34" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" t="s">
         <v>5</v>
       </c>
       <c r="K34">
@@ -1511,13 +2335,13 @@
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
+      <c r="A35" t="s">
         <v>29</v>
       </c>
-      <c r="B35" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C35" s="1" t="s">
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" t="s">
         <v>6</v>
       </c>
       <c r="K35">
@@ -1525,13 +2349,13 @@
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="A36" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C36" s="1" t="s">
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
         <v>5</v>
       </c>
       <c r="L36">
@@ -1539,13 +2363,13 @@
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
+      <c r="A37" t="s">
         <v>30</v>
       </c>
-      <c r="B37" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C37" s="1" t="s">
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+      <c r="C37" t="s">
         <v>6</v>
       </c>
       <c r="L37">
@@ -1558,6 +2382,217 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F3E9929-ACD9-4D3C-8D3B-36D78113CA79}">
+  <dimension ref="B1:B258"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B1" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" s="1"/>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B3" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="1"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="1"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="1"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="1"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="1"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="1"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
